--- a/MyLubanBuild~/Config/Datas/__enums__.xlsx
+++ b/MyLubanBuild~/Config/Datas/__enums__.xlsx
@@ -1,218 +1,312 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2B990-FCD7-4376-9E19-8C4DC3400C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView windowWidth="24045" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>item.EQuality</t>
+  </si>
+  <si>
+    <t>WHITE</t>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>蓝色的</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>紫色的</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>红</t>
   </si>
   <si>
     <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.EQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位标记使用示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +315,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,22 +516,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -269,17 +791,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -361,26 +927,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -413,23 +962,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,120 +1103,120 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8761904761905" customWidth="1"/>
+    <col min="4" max="5" width="14.1238095238095" customWidth="1"/>
+    <col min="6" max="6" width="9.37142857142857" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5047619047619" customWidth="1"/>
+    <col min="9" max="9" width="5.24761904761905" customWidth="1"/>
+    <col min="10" max="10" width="12.1238095238095" customWidth="1"/>
+    <col min="11" max="11" width="15.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="99" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -692,64 +1224,64 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
+      <c r="K6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
+    <row r="7" spans="8:11">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -757,54 +1289,54 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10">
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
+    <row r="11" spans="8:10">
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
+    <row r="12" spans="8:11">
+      <c r="H12" t="s">
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>